--- a/投资心得/交易记录.xlsx
+++ b/投资心得/交易记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="480" windowWidth="15000" windowHeight="16600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="480" windowWidth="15000" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="郑频文" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>春秋航空</t>
     <rPh sb="0" eb="1">
@@ -219,6 +219,13 @@
     <t>工商银行</t>
     <rPh sb="0" eb="1">
       <t>gong shang yin hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风华高科</t>
+    <rPh sb="0" eb="1">
+      <t>feng hua gao ke</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -602,24 +609,24 @@
         <v>166396.21</v>
       </c>
       <c r="D2">
-        <f>H5+H11+H17+H23+H29+H36</f>
-        <v>79782</v>
+        <f>H60+H11+H17+H23+H29+H36</f>
+        <v>56518</v>
       </c>
       <c r="E2">
         <v>1000</v>
       </c>
       <c r="F2">
         <f>C2+D2+E2</f>
-        <v>247178.21</v>
+        <v>223914.21</v>
       </c>
       <c r="H2">
         <f>F2/A2</f>
-        <v>0.97560380773211286</v>
+        <v>0.88378160793917848</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -648,49 +655,33 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>43900</v>
+        <v>43906</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>21.12</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
       <c r="E5">
         <f>(C5*D5+C6*D6+C7*D7)/(D5+D6+D7)</f>
-        <v>37.01</v>
+        <v>21.12</v>
       </c>
       <c r="F5">
-        <v>35.520000000000003</v>
+        <v>21.12</v>
       </c>
       <c r="G5" s="3">
         <f>(F5-E5)/E5</f>
-        <v>-4.0259389354228452E-2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>(D5+D6)*F5</f>
-        <v>21312.000000000004</v>
+        <f>(D5)*F5</f>
+        <v>6336</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43901</v>
-      </c>
-      <c r="C6">
-        <v>37.020000000000003</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -733,22 +724,33 @@
       </c>
       <c r="E11">
         <f>(C11*D11+C12*D12+C13*D13)/(D11+D12+D13)</f>
-        <v>36.409999999999997</v>
+        <v>37.21</v>
       </c>
       <c r="F11">
-        <v>42.19</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3">
         <f>(F11-E11)/E11</f>
-        <v>0.15874759681406211</v>
+        <v>2.1230851921526447E-2</v>
       </c>
       <c r="H11">
         <f>(D11)*F11</f>
-        <v>8438</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C12">
+        <v>38.01</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -800,15 +802,15 @@
         <v>14.375</v>
       </c>
       <c r="F17" s="4">
-        <v>13.79</v>
+        <v>13.26</v>
       </c>
       <c r="G17" s="3">
         <f>(F17-E17)/E17</f>
-        <v>-4.0695652173913105E-2</v>
+        <v>-7.7565217391304356E-2</v>
       </c>
       <c r="H17">
         <f>(D17+D18)*F17</f>
-        <v>11032</v>
+        <v>10608</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -876,15 +878,15 @@
         <v>6.3133333333333335</v>
       </c>
       <c r="F23">
-        <v>5.92</v>
+        <v>5.5</v>
       </c>
       <c r="G23" s="3">
         <f>(F23-E23)/E23</f>
-        <v>-6.2302006335797286E-2</v>
+        <v>-0.12882787750791977</v>
       </c>
       <c r="H23">
         <f>(D23+D24+D25)*F23</f>
-        <v>8880</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -958,18 +960,18 @@
       </c>
       <c r="E29">
         <f>(C29*D29+C30*D30+C31*D31)/(D29+D30+D31)</f>
-        <v>5.9249999999999998</v>
+        <v>5.9533333333333331</v>
       </c>
       <c r="F29" s="4">
-        <v>6.06</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3">
         <f>(F29-E29)/E29</f>
-        <v>2.2784810126582244E-2</v>
+        <v>7.838745800671924E-3</v>
       </c>
       <c r="H29">
         <f>(D29+D30)*F29</f>
-        <v>6060</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -989,7 +991,18 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="1"/>
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C31">
+        <v>6.01</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
@@ -1173,9 +1186,7 @@
         <f>(C49*D49+C50*D50)/(D49+D50)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="F49" s="4">
-        <v>36.51</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="6">
         <f>(C51*D51)-(E49*D51)</f>
         <v>326.00000000000091</v>
@@ -1300,6 +1311,113 @@
       </c>
       <c r="D57">
         <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <f>(C60*D60+C61*D61+C62*D62)/(D60+D61+D62)</f>
+        <v>36.373333333333335</v>
+      </c>
+      <c r="G60" s="6">
+        <f>(E63-E60)*(D63+D64)</f>
+        <v>-1293.000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C61">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43903</v>
+      </c>
+      <c r="C62">
+        <v>35.1</v>
+      </c>
+      <c r="D62">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C63">
+        <v>34.99</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <f>(C63*D63+C64*D64)/(D63+D64)</f>
+        <v>34.93666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C64">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="D64">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
